--- a/predictions/multiple/AdaBoostRegressor/Incidencia.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Incidencia.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.332709866655214</v>
+        <v>1.303032847453691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7828878062957411</v>
+        <v>0.7877224990542009</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.775923556714513</v>
+        <v>6.738631454951645</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9032005118447942</v>
+        <v>0.9037332593489039</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.124824888768827</v>
+        <v>4.044039067089223</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7962503645834558</v>
+        <v>0.8002408568244388</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.89374374558756</v>
+        <v>3.458308117259883</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9974424279768819</v>
+        <v>0.9977284401167772</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.903592052162537</v>
+        <v>2.897936084377366</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9683603748822212</v>
+        <v>0.9684220063708002</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.781160977765293</v>
+        <v>2.785218924537066</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9984406899488982</v>
+        <v>0.998438414784951</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.072452815090642</v>
+        <v>1.996764487035265</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9976261021306481</v>
+        <v>0.9977127995740819</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.15430456606055</v>
+        <v>14.72803416217296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8188407606811141</v>
+        <v>0.8239365288026931</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -606,10 +606,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.197528352626517</v>
+        <v>2.030286810866918</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9934492360457231</v>
+        <v>0.993947777901671</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/predictions/multiple/AdaBoostRegressor/Incidencia.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Incidencia.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.303032847453691</v>
+        <v>1.318032698037777</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7877224990542009</v>
+        <v>0.7852788685634022</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.738631454951645</v>
+        <v>6.88620145266274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9037332593489039</v>
+        <v>0.9016251038884805</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.044039067089223</v>
+        <v>4.115700080400246</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8002408568244388</v>
+        <v>0.7967010931424806</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.458308117259883</v>
+        <v>4.048885414110696</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9977284401167772</v>
+        <v>0.9973405245089189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.897936084377366</v>
+        <v>2.866126328869739</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9684220063708002</v>
+        <v>0.9687686283208775</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.785218924537066</v>
+        <v>2.695468174868986</v>
       </c>
       <c r="C7" t="n">
-        <v>0.998438414784951</v>
+        <v>0.9984887352256483</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.996764487035265</v>
+        <v>2.053663236250555</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9977127995740819</v>
+        <v>0.9976476247153119</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.72803416217296</v>
+        <v>15.45575288312933</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8239365288026931</v>
+        <v>0.8152371543542067</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -606,10 +606,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.030286810866918</v>
+        <v>2.11961902364044</v>
       </c>
       <c r="C10" t="n">
-        <v>0.993947777901671</v>
+        <v>0.9936814813423145</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/predictions/multiple/AdaBoostRegressor/Incidencia.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Incidencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.318032698037777</v>
+        <v>1.308313292598285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7852788685634022</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.7868622600346196</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.952869278467512</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -480,12 +488,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.88620145266274</v>
+        <v>6.91556435086562</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9016251038884805</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>0.9012056313998962</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.96195442228898</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -498,12 +509,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.115700080400246</v>
+        <v>4.071032756655834</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7967010931424806</v>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>0.7989074779402296</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.597451416511271</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -516,12 +530,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.048885414110696</v>
+        <v>3.955509390133789</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9973405245089189</v>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>0.9974018577455562</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.690025121283359</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -534,12 +551,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.866126328869739</v>
+        <v>2.879336475278879</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9687686283208775</v>
-      </c>
-      <c r="D6" t="inlineStr">
+        <v>0.9686246810746295</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.441611837529107</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -552,12 +572,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.695468174868986</v>
+        <v>2.37101831261121</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9984887352256483</v>
-      </c>
-      <c r="D7" t="inlineStr">
+        <v>0.9986706441246088</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.265570585794963</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -570,12 +593,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.053663236250555</v>
+        <v>2.010940401604862</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9976476247153119</v>
-      </c>
-      <c r="D8" t="inlineStr">
+        <v>0.9976965617262776</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.130324592094832</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -588,12 +614,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.45575288312933</v>
+        <v>15.55141433873043</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8152371543542067</v>
-      </c>
-      <c r="D9" t="inlineStr">
+        <v>0.8140935877554698</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.127129605711212</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -606,12 +635,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.11961902364044</v>
+        <v>2.164924826073224</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9936814813423145</v>
-      </c>
-      <c r="D10" t="inlineStr">
+        <v>0.9935464261485367</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.153911192551195</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>

--- a/predictions/multiple/AdaBoostRegressor/Incidencia.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Incidencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.308313292598285</v>
+        <v>1.361701347923318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7868622600346196</v>
+        <v>0.7781647947428578</v>
       </c>
       <c r="D2" t="n">
-        <v>0.952869278467512</v>
+        <v>0.978085772356986</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -488,17 +507,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.91556435086562</v>
+        <v>6.967168367103629</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9012056313998962</v>
+        <v>0.9004684267492264</v>
       </c>
       <c r="D3" t="n">
-        <v>1.96195442228898</v>
+        <v>1.983967610950923</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -509,17 +542,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.071032756655834</v>
+        <v>4.084931988671991</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7989074779402296</v>
+        <v>0.7982209121993245</v>
       </c>
       <c r="D4" t="n">
-        <v>1.597451416511271</v>
+        <v>1.595290458815578</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -530,17 +577,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.955509390133789</v>
+        <v>4.102577188453743</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9974018577455562</v>
+        <v>0.9973052575296558</v>
       </c>
       <c r="D5" t="n">
-        <v>1.690025121283359</v>
+        <v>1.717795437638292</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -551,17 +612,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.879336475278879</v>
+        <v>2.867332255016777</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9686246810746295</v>
+        <v>0.9687554876831685</v>
       </c>
       <c r="D6" t="n">
-        <v>1.441611837529107</v>
+        <v>1.428791619613574</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -572,17 +647,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.37101831261121</v>
+        <v>2.817726603198308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9986706441246088</v>
+        <v>0.9984201887453654</v>
       </c>
       <c r="D7" t="n">
-        <v>1.265570585794963</v>
+        <v>1.374402117713929</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -593,17 +682,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.010940401604862</v>
+        <v>2.050335789537169</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9976965617262776</v>
+        <v>0.9976514361500552</v>
       </c>
       <c r="D8" t="n">
-        <v>1.130324592094832</v>
+        <v>1.148261069783539</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -614,17 +717,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.55141433873043</v>
+        <v>15.57907473764967</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8140935877554698</v>
+        <v>0.8137629267999885</v>
       </c>
       <c r="D9" t="n">
-        <v>3.127129605711212</v>
+        <v>3.121877164717243</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -635,17 +752,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.164924826073224</v>
+        <v>1.950958721245652</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9935464261485367</v>
+        <v>0.994184252479772</v>
       </c>
       <c r="D10" t="n">
-        <v>1.153911192551195</v>
+        <v>1.068131567401561</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/multiple/AdaBoostRegressor/Incidencia.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Incidencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.361701347923318</v>
+        <v>1.294123935468054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7781647947428578</v>
+        <v>0.7891738527757535</v>
       </c>
       <c r="D2" t="n">
-        <v>0.978085772356986</v>
+        <v>0.9563752695328483</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,6 +509,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -507,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.967168367103629</v>
+        <v>6.926509703753763</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9004684267492264</v>
+        <v>0.9010492682785619</v>
       </c>
       <c r="D3" t="n">
-        <v>1.983967610950923</v>
+        <v>1.957121876262595</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -534,6 +550,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.084931988671991</v>
+        <v>4.245823787260473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7982209121993245</v>
+        <v>0.7902735092942522</v>
       </c>
       <c r="D4" t="n">
-        <v>1.595290458815578</v>
+        <v>1.627343786371562</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -569,6 +591,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -577,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.102577188453743</v>
+        <v>4.041165657826554</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9973052575296558</v>
+        <v>0.9973455951643054</v>
       </c>
       <c r="D5" t="n">
-        <v>1.717795437638292</v>
+        <v>1.695698936855346</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -604,6 +632,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -612,13 +646,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.867332255016777</v>
+        <v>2.867831406231114</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9687554876831685</v>
+        <v>0.9687500485729165</v>
       </c>
       <c r="D6" t="n">
-        <v>1.428791619613574</v>
+        <v>1.436044889417979</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -639,6 +673,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -647,13 +687,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.817726603198308</v>
+        <v>2.470467071850259</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9984201887453654</v>
+        <v>0.9986148863130003</v>
       </c>
       <c r="D7" t="n">
-        <v>1.374402117713929</v>
+        <v>1.277382901525897</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -674,6 +714,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -682,13 +728,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.050335789537169</v>
+        <v>2.016866106204859</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9976514361500552</v>
+        <v>0.9976897741085226</v>
       </c>
       <c r="D8" t="n">
-        <v>1.148261069783539</v>
+        <v>1.14505494204693</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -709,6 +755,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -717,13 +769,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.57907473764967</v>
+        <v>15.77119385868702</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8137629267999885</v>
+        <v>0.8114662754641242</v>
       </c>
       <c r="D9" t="n">
-        <v>3.121877164717243</v>
+        <v>3.132059411705479</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -744,6 +796,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -752,13 +810,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.950958721245652</v>
+        <v>2.029428910754003</v>
       </c>
       <c r="C10" t="n">
-        <v>0.994184252479772</v>
+        <v>0.9939503352753355</v>
       </c>
       <c r="D10" t="n">
-        <v>1.068131567401561</v>
+        <v>1.134732011086487</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -779,6 +837,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.985</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/predictions/multiple/AdaBoostRegressor/Incidencia.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Incidencia.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.294123935468054</v>
+        <v>1.329664853318767</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7891738527757535</v>
+        <v>0.7833838703993212</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9563752695328483</v>
+        <v>0.9550438990141005</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -506,14 +506,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H2" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.926509703753763</v>
+        <v>6.730011100889738</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9010492682785619</v>
+        <v>0.9038564080022092</v>
       </c>
       <c r="D3" t="n">
-        <v>1.957121876262595</v>
+        <v>1.927701341154146</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -547,14 +547,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H3" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.245823787260473</v>
+        <v>4.428984075279805</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7902735092942522</v>
+        <v>0.7812261332448251</v>
       </c>
       <c r="D4" t="n">
-        <v>1.627343786371562</v>
+        <v>1.64412781682654</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -588,14 +588,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H4" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.041165657826554</v>
+        <v>3.991420432282205</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9973455951643054</v>
+        <v>0.9973782698870014</v>
       </c>
       <c r="D5" t="n">
-        <v>1.695698936855346</v>
+        <v>1.685724745817371</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,14 +629,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H5" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="6">
@@ -646,13 +646,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.867831406231114</v>
+        <v>2.857487029826457</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9687500485729165</v>
+        <v>0.9688627683302519</v>
       </c>
       <c r="D6" t="n">
-        <v>1.436044889417979</v>
+        <v>1.423911122193501</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H6" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="7">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.470467071850259</v>
+        <v>2.697741233923066</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9986148863130003</v>
+        <v>0.998487460792468</v>
       </c>
       <c r="D7" t="n">
-        <v>1.277382901525897</v>
+        <v>1.342371337894648</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -711,14 +711,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H7" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.016866106204859</v>
+        <v>1.999406392276951</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9976897741085226</v>
+        <v>0.9977097733950642</v>
       </c>
       <c r="D8" t="n">
-        <v>1.14505494204693</v>
+        <v>1.130914294952077</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -752,14 +752,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H8" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="9">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.77119385868702</v>
+        <v>15.41710784914691</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8114662754641242</v>
+        <v>0.8156991290313811</v>
       </c>
       <c r="D9" t="n">
-        <v>3.132059411705479</v>
+        <v>3.103895540225516</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -793,14 +793,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H9" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="10">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.029428910754003</v>
+        <v>2.089305152848347</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9939503352753355</v>
+        <v>0.9937718460522225</v>
       </c>
       <c r="D10" t="n">
-        <v>1.134732011086487</v>
+        <v>1.122687637064625</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -834,14 +834,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H10" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/multiple/AdaBoostRegressor/Incidencia.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Incidencia.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.329664853318767</v>
+        <v>1.33528680788585</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7833838703993212</v>
+        <v>0.7824679959697063</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9550438990141005</v>
+        <v>0.9654055978746998</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H2" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.730011100889738</v>
+        <v>7.025280092947557</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9038564080022092</v>
+        <v>0.8996382542612364</v>
       </c>
       <c r="D3" t="n">
-        <v>1.927701341154146</v>
+        <v>1.987367416611405</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H3" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.428984075279805</v>
+        <v>4.163545068144824</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7812261332448251</v>
+        <v>0.7943377446192476</v>
       </c>
       <c r="D4" t="n">
-        <v>1.64412781682654</v>
+        <v>1.611962710542071</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H4" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.991420432282205</v>
+        <v>4.292350783511591</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9973782698870014</v>
+        <v>0.9971806063792054</v>
       </c>
       <c r="D5" t="n">
-        <v>1.685724745817371</v>
+        <v>1.734676296119787</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H5" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="6">
@@ -646,13 +646,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.857487029826457</v>
+        <v>2.911427718016748</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9688627683302519</v>
+        <v>0.968274991837454</v>
       </c>
       <c r="D6" t="n">
-        <v>1.423911122193501</v>
+        <v>1.420325649634877</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H6" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="7">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.697741233923066</v>
+        <v>2.74364672908489</v>
       </c>
       <c r="C7" t="n">
-        <v>0.998487460792468</v>
+        <v>0.998461723015842</v>
       </c>
       <c r="D7" t="n">
-        <v>1.342371337894648</v>
+        <v>1.356416829806536</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H7" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.999406392276951</v>
+        <v>1.947761665352517</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9977097733950642</v>
+        <v>0.9977689300167814</v>
       </c>
       <c r="D8" t="n">
-        <v>1.130914294952077</v>
+        <v>1.118130376500956</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H8" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="9">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.41710784914691</v>
+        <v>15.10570537004093</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8156991290313811</v>
+        <v>0.8194217304870227</v>
       </c>
       <c r="D9" t="n">
-        <v>3.103895540225516</v>
+        <v>3.081116767333806</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,10 +797,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H9" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="10">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.089305152848347</v>
+        <v>1.96838522198106</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9937718460522225</v>
+        <v>0.9941323046208377</v>
       </c>
       <c r="D10" t="n">
-        <v>1.122687637064625</v>
+        <v>1.096053566134104</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H10" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
   </sheetData>
